--- a/Raw-data/linear-cas-tnp-experiments.xlsx
+++ b/Raw-data/linear-cas-tnp-experiments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganwang/Library/CloudStorage/Box-Box/Downloads/linear-cas-tnp-figures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganwang/Library/CloudStorage/Box-Box/Downloads/linear-cas-tnp-figures/A-universal-system-for-streamlined-genome-integrations-with-CRISPR-associated-transposases/Raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653B5D2B-8E46-1040-95C3-0B0558D83D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBB3F43-7B2C-F141-9873-9BEEB4E381B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="37620" windowHeight="18580" activeTab="4" xr2:uid="{90132983-9FDE-1D4E-BEBA-3F1898C5876F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="4" xr2:uid="{90132983-9FDE-1D4E-BEBA-3F1898C5876F}"/>
   </bookViews>
   <sheets>
     <sheet name="1b-pEffector-crRNA" sheetId="1" r:id="rId1"/>
@@ -48,18 +48,6 @@
     <t>CFU</t>
   </si>
   <si>
-    <t>L02</t>
-  </si>
-  <si>
-    <t>L09</t>
-  </si>
-  <si>
-    <t>L14</t>
-  </si>
-  <si>
-    <t>L21</t>
-  </si>
-  <si>
     <t>NT</t>
   </si>
   <si>
@@ -87,16 +75,28 @@
     <t>LR</t>
   </si>
   <si>
-    <t>L02 CAST</t>
+    <t>TS1 CAST</t>
   </si>
   <si>
-    <t>L21 CAST</t>
+    <t>TS1 λ-Red</t>
   </si>
   <si>
-    <t>L02 λ-Red</t>
+    <t>TS1</t>
   </si>
   <si>
-    <t>L21 λ-Red</t>
+    <t>TS2</t>
+  </si>
+  <si>
+    <t>TS3</t>
+  </si>
+  <si>
+    <t>TS4</t>
+  </si>
+  <si>
+    <t>TS4 CAST</t>
+  </si>
+  <si>
+    <t>TS4 λ-Red</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>5000</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>18000</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>2800</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>35000</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>26000</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>60000</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>2300</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>600</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>700</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>126000</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>50000</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>57000</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -647,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -655,10 +655,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>61000</v>
@@ -666,10 +666,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>71000</v>
@@ -677,10 +677,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>67000</v>
@@ -688,10 +688,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>28000</v>
@@ -699,10 +699,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>16000</v>
@@ -710,10 +710,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>19000</v>
@@ -721,10 +721,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -732,10 +732,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -743,10 +743,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -754,10 +754,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>1500</v>
@@ -765,10 +765,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>400</v>
@@ -776,10 +776,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>600</v>
@@ -787,10 +787,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <v>130</v>
@@ -798,10 +798,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <v>90</v>
@@ -809,10 +809,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>100</v>
@@ -820,10 +820,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -842,10 +842,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2">
         <v>9800</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2">
         <v>10000</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2">
         <v>15000</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2">
         <v>5000</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2">
         <v>500</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2">
         <v>5000</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2">
         <v>5000</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2">
         <v>1300</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2">
         <v>5000</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1">
         <v>11000</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2">
         <v>12000</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2">
         <v>7000</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>20</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>20</v>
@@ -1075,7 +1075,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>20</v>
@@ -1086,7 +1086,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>20</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>20</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>20</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1237,7 +1237,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1261,13 +1261,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>33000</v>
@@ -1275,13 +1275,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>20000</v>
@@ -1289,13 +1289,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>50000</v>
@@ -1303,13 +1303,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>46000</v>
@@ -1317,13 +1317,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>60000</v>
@@ -1331,13 +1331,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>20000</v>
@@ -1345,13 +1345,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>210</v>
@@ -1359,13 +1359,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>900</v>
@@ -1373,13 +1373,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>500</v>
@@ -1387,13 +1387,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>60</v>
@@ -1401,13 +1401,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D12">
         <v>110</v>
@@ -1415,13 +1415,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D13">
         <v>70</v>
@@ -1429,13 +1429,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>24</v>
@@ -1443,13 +1443,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>20</v>
@@ -1457,13 +1457,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>32</v>
@@ -1471,13 +1471,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1485,13 +1485,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1499,13 +1499,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1534,10 +1534,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1545,13 +1545,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>30000</v>
@@ -1559,13 +1559,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>25000</v>
@@ -1573,13 +1573,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>10000</v>
@@ -1587,13 +1587,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>75000</v>
@@ -1601,13 +1601,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>35000</v>
@@ -1615,13 +1615,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>10000</v>
@@ -1629,13 +1629,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>1200</v>
@@ -1643,13 +1643,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>2000</v>
@@ -1657,13 +1657,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>900</v>
@@ -1674,10 +1674,10 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1688,10 +1688,10 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1702,10 +1702,10 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1716,10 +1716,10 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1730,10 +1730,10 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1744,10 +1744,10 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1758,10 +1758,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1772,10 +1772,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1786,10 +1786,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D19">
         <v>0</v>

--- a/Raw-data/linear-cas-tnp-experiments.xlsx
+++ b/Raw-data/linear-cas-tnp-experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganwang/Library/CloudStorage/Box-Box/Downloads/linear-cas-tnp-figures/A-universal-system-for-streamlined-genome-integrations-with-CRISPR-associated-transposases/Raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBB3F43-7B2C-F141-9873-9BEEB4E381B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F0F756-6492-374A-B1E9-9A2D0C5E8818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="4" xr2:uid="{90132983-9FDE-1D4E-BEBA-3F1898C5876F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="3" xr2:uid="{90132983-9FDE-1D4E-BEBA-3F1898C5876F}"/>
   </bookViews>
   <sheets>
     <sheet name="1b-pEffector-crRNA" sheetId="1" r:id="rId1"/>
@@ -1012,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCE6B5F-7A12-0F4A-A994-B88A937638C6}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView zoomScale="173" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>20</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1228,6 +1228,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1236,7 +1237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E1B0CC-3351-2546-B6B6-BB6C1C779E39}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>

--- a/Raw-data/linear-cas-tnp-experiments.xlsx
+++ b/Raw-data/linear-cas-tnp-experiments.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganwang/Library/CloudStorage/Box-Box/Downloads/linear-cas-tnp-figures/A-universal-system-for-streamlined-genome-integrations-with-CRISPR-associated-transposases/Raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F0F756-6492-374A-B1E9-9A2D0C5E8818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE3E8A2-466F-B64C-85DA-3A190ECFC543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="3" xr2:uid="{90132983-9FDE-1D4E-BEBA-3F1898C5876F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="4" xr2:uid="{90132983-9FDE-1D4E-BEBA-3F1898C5876F}"/>
   </bookViews>
   <sheets>
-    <sheet name="1b-pEffector-crRNA" sheetId="1" r:id="rId1"/>
-    <sheet name="1c-varying lengths" sheetId="5" r:id="rId2"/>
-    <sheet name="2b-pTargets" sheetId="3" r:id="rId3"/>
-    <sheet name="S1-end lengths" sheetId="4" r:id="rId4"/>
-    <sheet name="4-lambda-red-L02" sheetId="6" r:id="rId5"/>
-    <sheet name="4-lambda-red-L21" sheetId="8" r:id="rId6"/>
+    <sheet name="Fig3-pEffector-crRNA" sheetId="1" r:id="rId1"/>
+    <sheet name="Fig4-lambda-red-L02" sheetId="6" r:id="rId2"/>
+    <sheet name="Fig4-lambda-red-L21" sheetId="8" r:id="rId3"/>
+    <sheet name="Fig6-pTargets" sheetId="3" r:id="rId4"/>
+    <sheet name="Sup-end lengths" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="19">
   <si>
     <t>Construct</t>
   </si>
@@ -633,607 +632,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E653261-1452-CE48-AC16-FE51B88436C8}">
-  <dimension ref="A1:C19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>61000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>71000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>67000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>28000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>19000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C16">
-    <sortCondition descending="1" ref="B1:B16"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B058D955-2AD9-B84F-A610-730484663AC8}">
-  <dimension ref="A1:B16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="26.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.33203125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2">
-        <v>9800</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="2">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCE6B5F-7A12-0F4A-A994-B88A937638C6}">
-  <dimension ref="A1:C19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>20</v>
-      </c>
-      <c r="C2">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>20</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>20</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E1B0CC-3351-2546-B6B6-BB6C1C779E39}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -1517,12 +915,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A2032E-14C6-D449-8F70-81AC1C45B18A}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1799,4 +1197,377 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B058D955-2AD9-B84F-A610-730484663AC8}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCE6B5F-7A12-0F4A-A994-B88A937638C6}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>